--- a/biology/Botanique/Boraginales/Boraginales.xlsx
+++ b/biology/Botanique/Boraginales/Boraginales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Boraginales sont un ordre de plantes dicotylédones.
-Il a été remis à jour dans la classification phylogénétique APG IV (2016)[1][2]. Les familles qu'il contient étaient précédemment incluses dans l’ordre des Lamiales.
+Il a été remis à jour dans la classification phylogénétique APG IV (2016). Les familles qu'il contient étaient précédemment incluses dans l’ordre des Lamiales.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique de ce taxon est Boraginales[3].
-Boraginales a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique de ce taxon est Boraginales.
+Boraginales a pour synonymes :
 Cordiales
 Echiales
 Ehretiales
@@ -549,9 +563,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des familles selon GBIF       (7 décembre 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des familles selon GBIF       (7 décembre 2021) :
 Boraginaceae
 Codonaceae
 Coldeniaceae
@@ -562,7 +578,7 @@
 Hydrophyllaceae
 Namaceae
 Wellstediaceae
-Liste des familles selon ITIS      (7 décembre 2021)[4] :
+Liste des familles selon ITIS      (7 décembre 2021) :
 Boraginaceae
 Codonaceae
 Cordiaceae
